--- a/Code/Results/Cases/Case_3_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_65/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.031335002661365</v>
+        <v>0.7689166990269314</v>
       </c>
       <c r="C2">
-        <v>0.4334399793226282</v>
+        <v>0.1311608951239407</v>
       </c>
       <c r="D2">
-        <v>0.1625001287774666</v>
+        <v>0.2617112972241102</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8239821233001976</v>
+        <v>1.296422861156174</v>
       </c>
       <c r="G2">
-        <v>0.000791688890367365</v>
+        <v>0.002434700422176341</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.146973287842826</v>
+        <v>0.2675860458324877</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6727560039360796</v>
+        <v>0.3942602305829652</v>
       </c>
       <c r="N2">
-        <v>0.686343736413825</v>
+        <v>1.23369419561373</v>
       </c>
       <c r="O2">
-        <v>1.829503822911363</v>
+        <v>2.864332284145007</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.764311773741497</v>
+        <v>0.6903851675846511</v>
       </c>
       <c r="C3">
-        <v>0.3797341886189258</v>
+        <v>0.1144111504106888</v>
       </c>
       <c r="D3">
-        <v>0.1489712863154153</v>
+        <v>0.2593761002322026</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7710428053351777</v>
+        <v>1.293609930073984</v>
       </c>
       <c r="G3">
-        <v>0.0007960387399347606</v>
+        <v>0.002437619918592648</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1389707346829709</v>
+        <v>0.2675714652564523</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5866813747179975</v>
+        <v>0.3710925341965137</v>
       </c>
       <c r="N3">
-        <v>0.7154932489714803</v>
+        <v>1.246447606920917</v>
       </c>
       <c r="O3">
-        <v>1.719464605857041</v>
+        <v>2.862141862779936</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.600804554879716</v>
+        <v>0.6422450569735076</v>
       </c>
       <c r="C4">
-        <v>0.3467597443946602</v>
+        <v>0.1040893375892722</v>
       </c>
       <c r="D4">
-        <v>0.1408066058131112</v>
+        <v>0.2580374458545549</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.740176257124169</v>
+        <v>1.292673066549746</v>
       </c>
       <c r="G4">
-        <v>0.0007987981762177521</v>
+        <v>0.00243950914249302</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1343220360055142</v>
+        <v>0.2677018638457582</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5341593066268189</v>
+        <v>0.3570038032193494</v>
       </c>
       <c r="N4">
-        <v>0.7344561158526339</v>
+        <v>1.254779869254303</v>
       </c>
       <c r="O4">
-        <v>1.656071592908972</v>
+        <v>2.862699357097938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.534259138208256</v>
+        <v>0.6226483097021571</v>
       </c>
       <c r="C5">
-        <v>0.3333182853041023</v>
+        <v>0.09987393089295438</v>
       </c>
       <c r="D5">
-        <v>0.1375129905653125</v>
+        <v>0.2575159405166971</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7279848757595317</v>
+        <v>1.292489912473513</v>
       </c>
       <c r="G5">
-        <v>0.0007999453840021535</v>
+        <v>0.0024403033911379</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.132490444918524</v>
+        <v>0.2677900350991607</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5128277030150343</v>
+        <v>0.3512970939325015</v>
       </c>
       <c r="N5">
-        <v>0.7424434412967038</v>
+        <v>1.258301497817154</v>
       </c>
       <c r="O5">
-        <v>1.631222899456645</v>
+        <v>2.863404395476664</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.523213701970889</v>
+        <v>0.6193955663076167</v>
       </c>
       <c r="C6">
-        <v>0.3310859706255371</v>
+        <v>0.09917341763946297</v>
       </c>
       <c r="D6">
-        <v>0.1369680538962967</v>
+        <v>0.2574307971951271</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7259831730664246</v>
+        <v>1.292471493507591</v>
       </c>
       <c r="G6">
-        <v>0.0008001372611930925</v>
+        <v>0.002440436749862078</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1321899951929169</v>
+        <v>0.2678067915298143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5092896211742399</v>
+        <v>0.3503515950524658</v>
       </c>
       <c r="N6">
-        <v>0.7437851967540574</v>
+        <v>1.258893882473092</v>
       </c>
       <c r="O6">
-        <v>1.627154431427641</v>
+        <v>2.863550312527764</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.599906790153824</v>
+        <v>0.6419806831131325</v>
       </c>
       <c r="C7">
-        <v>0.3465784903880262</v>
+        <v>0.1040325240331867</v>
       </c>
       <c r="D7">
-        <v>0.1407620538720238</v>
+        <v>0.2580303153444703</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7400103050828903</v>
+        <v>1.292669792376032</v>
       </c>
       <c r="G7">
-        <v>0.0007988135553526621</v>
+        <v>0.002439519755078482</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1342970851890968</v>
+        <v>0.2677029111186897</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5338713453922992</v>
+        <v>0.3569267002233119</v>
       </c>
       <c r="N7">
-        <v>0.7345627940172044</v>
+        <v>1.254826852296862</v>
       </c>
       <c r="O7">
-        <v>1.655732571396129</v>
+        <v>2.862706931377431</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.939155915232078</v>
+        <v>0.7418232844613044</v>
       </c>
       <c r="C8">
-        <v>0.414919239158877</v>
+        <v>0.125393473237807</v>
       </c>
       <c r="D8">
-        <v>0.1578045478489258</v>
+        <v>0.2608864144692973</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8053731180692125</v>
+        <v>1.295288874020557</v>
       </c>
       <c r="G8">
-        <v>0.0007931705947694134</v>
+        <v>0.002435687050749556</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.144156661850495</v>
+        <v>0.2675520904239406</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6430025669340154</v>
+        <v>0.3862438752183124</v>
       </c>
       <c r="N8">
-        <v>0.6961685214008746</v>
+        <v>1.237987478314594</v>
       </c>
       <c r="O8">
-        <v>1.790656590458525</v>
+        <v>2.863181853830866</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.60929910785319</v>
+        <v>0.9382044125550806</v>
       </c>
       <c r="C9">
-        <v>0.5491638366819132</v>
+        <v>0.1669777327548729</v>
       </c>
       <c r="D9">
-        <v>0.1924577698606669</v>
+        <v>0.2672394484871177</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9477516884150248</v>
+        <v>1.306702159912874</v>
       </c>
       <c r="G9">
-        <v>0.0007827870876776744</v>
+        <v>0.00242893458446605</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1657769694925122</v>
+        <v>0.2683627387609349</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8601482362511561</v>
+        <v>0.444807254720395</v>
       </c>
       <c r="N9">
-        <v>0.6297074807160499</v>
+        <v>1.208944245094216</v>
       </c>
       <c r="O9">
-        <v>2.091439517708125</v>
+        <v>2.879236275420141</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.106664524023188</v>
+        <v>1.082815134587236</v>
       </c>
       <c r="C10">
-        <v>0.6482719309070433</v>
+        <v>0.1973365775169782</v>
       </c>
       <c r="D10">
-        <v>0.2188279127586128</v>
+        <v>0.2723625055370604</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.062805815602573</v>
+        <v>1.318926802277872</v>
       </c>
       <c r="G10">
-        <v>0.000775543486833957</v>
+        <v>0.002424434277044085</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1833288312728385</v>
+        <v>0.2696343163801203</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.022412057924143</v>
+        <v>0.4884798973050977</v>
       </c>
       <c r="N10">
-        <v>0.5868215704135338</v>
+        <v>1.190029701217163</v>
       </c>
       <c r="O10">
-        <v>2.339103001006038</v>
+        <v>2.900296591568605</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.334511256406017</v>
+        <v>1.148668347770524</v>
       </c>
       <c r="C11">
-        <v>0.693545857893497</v>
+        <v>0.2111042668061316</v>
       </c>
       <c r="D11">
-        <v>0.2310601874378335</v>
+        <v>0.2747914141814363</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.117845704560182</v>
+        <v>1.325324683291456</v>
       </c>
       <c r="G11">
-        <v>0.0007723245196535232</v>
+        <v>0.002422486015120335</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1917415442731993</v>
+        <v>0.2703599349861889</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.097018812634531</v>
+        <v>0.5084866790282589</v>
       </c>
       <c r="N11">
-        <v>0.5687362447870896</v>
+        <v>1.181950886138424</v>
       </c>
       <c r="O11">
-        <v>2.458672523382347</v>
+        <v>2.911899577882963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.421063776183928</v>
+        <v>1.173614386696499</v>
       </c>
       <c r="C12">
-        <v>0.7107245258867749</v>
+        <v>0.2163114081719471</v>
       </c>
       <c r="D12">
-        <v>0.2357296055688067</v>
+        <v>0.2757252629743192</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.13911503867773</v>
+        <v>1.327867904013175</v>
       </c>
       <c r="G12">
-        <v>0.0007711158922469665</v>
+        <v>0.00242176241268391</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.194994741194769</v>
+        <v>0.2706558913652231</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.125401872524755</v>
+        <v>0.5160826232032036</v>
       </c>
       <c r="N12">
-        <v>0.5621047477466092</v>
+        <v>1.178967215261281</v>
       </c>
       <c r="O12">
-        <v>2.505043501853663</v>
+        <v>2.916584875137687</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.402410328437043</v>
+        <v>1.168241434091556</v>
       </c>
       <c r="C13">
-        <v>0.7070231399325166</v>
+        <v>0.2151902448979399</v>
       </c>
       <c r="D13">
-        <v>0.2347222471555455</v>
+        <v>0.2755235172097628</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.13451467420235</v>
+        <v>1.327314815117475</v>
       </c>
       <c r="G13">
-        <v>0.0007713757430878086</v>
+        <v>0.002421917624554359</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1942910067078572</v>
+        <v>0.2705912095856604</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.119282953104822</v>
+        <v>0.5144458244911903</v>
       </c>
       <c r="N13">
-        <v>0.5635231015184914</v>
+        <v>1.179606439202296</v>
       </c>
       <c r="O13">
-        <v>2.495006419966074</v>
+        <v>2.915562837596156</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.341626276619536</v>
+        <v>1.150720502067827</v>
       </c>
       <c r="C14">
-        <v>0.6949584238942066</v>
+        <v>0.2115327907910967</v>
       </c>
       <c r="D14">
-        <v>0.2314435753073667</v>
+        <v>0.2748679608613003</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.119586758067697</v>
+        <v>1.325531500110543</v>
       </c>
       <c r="G14">
-        <v>0.0007722248820155962</v>
+        <v>0.002422426200602394</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1920077987988051</v>
+        <v>0.2703838589103</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.099351173092643</v>
+        <v>0.509111206642352</v>
       </c>
       <c r="N14">
-        <v>0.5681862443712333</v>
+        <v>1.181703902371353</v>
       </c>
       <c r="O14">
-        <v>2.462464996563511</v>
+        <v>2.91227919427871</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.304431033074763</v>
+        <v>1.139989546755999</v>
       </c>
       <c r="C15">
-        <v>0.6875731438854302</v>
+        <v>0.2092916559783475</v>
       </c>
       <c r="D15">
-        <v>0.2294402576970498</v>
+        <v>0.2744682442231436</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.110499770129593</v>
+        <v>1.324454862851439</v>
       </c>
       <c r="G15">
-        <v>0.0007727463293839635</v>
+        <v>0.002422739560289404</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.190618239538928</v>
+        <v>0.2702596094575895</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.087159989773703</v>
+        <v>0.5058461700250376</v>
       </c>
       <c r="N15">
-        <v>0.5710711973834748</v>
+        <v>1.182998505700553</v>
       </c>
       <c r="O15">
-        <v>2.442677809782367</v>
+        <v>2.910305849144009</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.091809839369432</v>
+        <v>1.078512770076145</v>
       </c>
       <c r="C16">
-        <v>0.6453175817409829</v>
+        <v>0.1964359465617065</v>
       </c>
       <c r="D16">
-        <v>0.2180335402228621</v>
+        <v>0.2722057442371408</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.059266407458949</v>
+        <v>1.31852553742597</v>
       </c>
       <c r="G16">
-        <v>0.0007757553341246426</v>
+        <v>0.002424563585817498</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1827881526758262</v>
+        <v>0.2695898584392467</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.017553708984856</v>
+        <v>0.4871751957563504</v>
       </c>
       <c r="N16">
-        <v>0.588033168125591</v>
+        <v>1.190568248101862</v>
       </c>
       <c r="O16">
-        <v>2.331436150980863</v>
+        <v>2.899579064201333</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.961810972889907</v>
+        <v>1.040815683081121</v>
       </c>
       <c r="C17">
-        <v>0.6194485441673976</v>
+        <v>0.1885382749730411</v>
       </c>
       <c r="D17">
-        <v>0.2110987195669622</v>
+        <v>0.270842922910191</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.028554704061094</v>
+        <v>1.315102525122413</v>
       </c>
       <c r="G17">
-        <v>0.0007776203393388692</v>
+        <v>0.002425707862211929</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1780983961237226</v>
+        <v>0.2692166942999279</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9750671954630121</v>
+        <v>0.4757567672697007</v>
       </c>
       <c r="N17">
-        <v>0.5988118991068987</v>
+        <v>1.195346657245985</v>
       </c>
       <c r="O17">
-        <v>2.265030220250708</v>
+        <v>2.893517019891533</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.887186208305081</v>
+        <v>1.019139881086062</v>
       </c>
       <c r="C18">
-        <v>0.604586693717664</v>
+        <v>0.1839917383981344</v>
       </c>
       <c r="D18">
-        <v>0.207132027897714</v>
+        <v>0.270068330976045</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.0111419188176</v>
+        <v>1.313212456588914</v>
       </c>
       <c r="G18">
-        <v>0.000778700252036185</v>
+        <v>0.002426375337498775</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1754409049179131</v>
+        <v>0.2690159116021178</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9507035265041424</v>
+        <v>0.4692023732943227</v>
       </c>
       <c r="N18">
-        <v>0.6051447564310166</v>
+        <v>1.198144532563767</v>
       </c>
       <c r="O18">
-        <v>2.227478927400938</v>
+        <v>2.890220624267386</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.861943567615469</v>
+        <v>1.011801987410195</v>
       </c>
       <c r="C19">
-        <v>0.599557494489261</v>
+        <v>0.1824516788385893</v>
       </c>
       <c r="D19">
-        <v>0.2057926611101806</v>
+        <v>0.2698076613841351</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.005288366383411</v>
+        <v>1.312586034079487</v>
       </c>
       <c r="G19">
-        <v>0.0007790671488797826</v>
+        <v>0.002426602935357704</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1745478101950084</v>
+        <v>0.2689503085055307</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9424665203968132</v>
+        <v>0.4669854417673989</v>
       </c>
       <c r="N19">
-        <v>0.6073114729436568</v>
+        <v>1.199100339049515</v>
       </c>
       <c r="O19">
-        <v>2.214872344019057</v>
+        <v>2.88913719096422</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.975634045717698</v>
+        <v>1.044827930653469</v>
       </c>
       <c r="C20">
-        <v>0.6222005029740671</v>
+        <v>0.1893794118395249</v>
       </c>
       <c r="D20">
-        <v>0.2118346393170185</v>
+        <v>0.27098703903863</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.031797690225034</v>
+        <v>1.315458758441778</v>
       </c>
       <c r="G20">
-        <v>0.0007774210644480129</v>
+        <v>0.002425585088148986</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1785934545554255</v>
+        <v>0.2692549845625649</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9795822354271095</v>
+        <v>0.4769709161765689</v>
       </c>
       <c r="N20">
-        <v>0.5976506111798159</v>
+        <v>1.194832868197501</v>
       </c>
       <c r="O20">
-        <v>2.272031934239237</v>
+        <v>2.894142631434676</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.359472287217898</v>
+        <v>1.155866592722418</v>
       </c>
       <c r="C21">
-        <v>0.6985011287265763</v>
+        <v>0.2126072489095066</v>
       </c>
       <c r="D21">
-        <v>0.2324055599919319</v>
+        <v>0.2750601323024</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.123959540559341</v>
+        <v>1.326052031938232</v>
       </c>
       <c r="G21">
-        <v>0.0007719751943359271</v>
+        <v>0.002422276435733599</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1926765514649418</v>
+        <v>0.270444187862914</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.105201917968337</v>
+        <v>0.5106775779969226</v>
       </c>
       <c r="N21">
-        <v>0.5668105737869666</v>
+        <v>1.181085774511182</v>
       </c>
       <c r="O21">
-        <v>2.471992716749583</v>
+        <v>2.913235763492622</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.61194015901151</v>
+        <v>1.228487900970435</v>
       </c>
       <c r="C22">
-        <v>0.7485724185432048</v>
+        <v>0.2277506613019682</v>
       </c>
       <c r="D22">
-        <v>0.2460691164826159</v>
+        <v>0.2778041316777404</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.186701155017133</v>
+        <v>1.333677678127501</v>
       </c>
       <c r="G22">
-        <v>0.0007684758630914142</v>
+        <v>0.002420196555477094</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2022771034530635</v>
+        <v>0.2713448644252878</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.188074814009951</v>
+        <v>0.5328221579237891</v>
       </c>
       <c r="N22">
-        <v>0.547926180336745</v>
+        <v>1.172541933896376</v>
       </c>
       <c r="O22">
-        <v>2.609099085203468</v>
+        <v>2.92741360875516</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.477031118813954</v>
+        <v>1.189724219088191</v>
       </c>
       <c r="C23">
-        <v>0.7218271682070565</v>
+        <v>0.2196718322737468</v>
       </c>
       <c r="D23">
-        <v>0.2387553871591166</v>
+        <v>0.276332130061931</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.152971725165884</v>
+        <v>1.329543415534616</v>
       </c>
       <c r="G23">
-        <v>0.0007703382648584647</v>
+        <v>0.002421299098499189</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1971147622015579</v>
+        <v>0.2708528537390862</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.143767190032449</v>
+        <v>0.5209927266811434</v>
       </c>
       <c r="N23">
-        <v>0.5578845025860844</v>
+        <v>1.177061607802926</v>
       </c>
       <c r="O23">
-        <v>2.535300406086776</v>
+        <v>2.919690914988848</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.969384284738396</v>
+        <v>1.04301400355132</v>
       </c>
       <c r="C24">
-        <v>0.6209563099062336</v>
+        <v>0.1889991527210952</v>
       </c>
       <c r="D24">
-        <v>0.2115018672377857</v>
+        <v>0.2709218563715439</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.030330779727933</v>
+        <v>1.315297462816417</v>
       </c>
       <c r="G24">
-        <v>0.0007775111326322815</v>
+        <v>0.002425640564310441</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1783695184986911</v>
+        <v>0.2692376306929276</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9775407928000064</v>
+        <v>0.4764219676224215</v>
       </c>
       <c r="N24">
-        <v>0.5981752066950463</v>
+        <v>1.195064994284273</v>
       </c>
       <c r="O24">
-        <v>2.268864515798668</v>
+        <v>2.893859204538785</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.427284175436682</v>
+        <v>0.8850180759411046</v>
       </c>
       <c r="C25">
-        <v>0.5127892650839669</v>
+        <v>0.155761463523163</v>
       </c>
       <c r="D25">
-        <v>0.1829354204782447</v>
+        <v>0.2654405738057335</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9075367288333496</v>
+        <v>1.302941245980435</v>
       </c>
       <c r="G25">
-        <v>0.0007855261220663719</v>
+        <v>0.002430680059626191</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.159656275100069</v>
+        <v>0.268024834067063</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8009880989773777</v>
+        <v>0.4288502889005699</v>
       </c>
       <c r="N25">
-        <v>0.6466862026057711</v>
+        <v>1.216375485960612</v>
       </c>
       <c r="O25">
-        <v>2.005738025418111</v>
+        <v>2.873269375179973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_65/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7689166990269314</v>
+        <v>2.031335002661535</v>
       </c>
       <c r="C2">
-        <v>0.1311608951239407</v>
+        <v>0.4334399793227988</v>
       </c>
       <c r="D2">
-        <v>0.2617112972241102</v>
+        <v>0.1625001287774808</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.296422861156174</v>
+        <v>0.8239821233001976</v>
       </c>
       <c r="G2">
-        <v>0.002434700422176341</v>
+        <v>0.0007916888903622225</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2675860458324877</v>
+        <v>0.1469732878429042</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3942602305829652</v>
+        <v>0.6727560039360725</v>
       </c>
       <c r="N2">
-        <v>1.23369419561373</v>
+        <v>0.6863437364138179</v>
       </c>
       <c r="O2">
-        <v>2.864332284145007</v>
+        <v>1.829503822911335</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6903851675846511</v>
+        <v>1.764311773741412</v>
       </c>
       <c r="C3">
-        <v>0.1144111504106888</v>
+        <v>0.3797341886191816</v>
       </c>
       <c r="D3">
-        <v>0.2593761002322026</v>
+        <v>0.1489712863154296</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.293609930073984</v>
+        <v>0.771042805335199</v>
       </c>
       <c r="G3">
-        <v>0.002437619918592648</v>
+        <v>0.0007960387400164474</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2675714652564523</v>
+        <v>0.1389707346830278</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3710925341965137</v>
+        <v>0.5866813747180188</v>
       </c>
       <c r="N3">
-        <v>1.246447606920917</v>
+        <v>0.7154932489714874</v>
       </c>
       <c r="O3">
-        <v>2.862141862779936</v>
+        <v>1.719464605857041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6422450569735076</v>
+        <v>1.600804554879602</v>
       </c>
       <c r="C4">
-        <v>0.1040893375892722</v>
+        <v>0.3467597443946318</v>
       </c>
       <c r="D4">
-        <v>0.2580374458545549</v>
+        <v>0.1408066058130544</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.292673066549746</v>
+        <v>0.7401762571241477</v>
       </c>
       <c r="G4">
-        <v>0.00243950914249302</v>
+        <v>0.0007987981761955281</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2677018638457582</v>
+        <v>0.1343220360054858</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3570038032193494</v>
+        <v>0.534159306626826</v>
       </c>
       <c r="N4">
-        <v>1.254779869254303</v>
+        <v>0.7344561158526339</v>
       </c>
       <c r="O4">
-        <v>2.862699357097938</v>
+        <v>1.656071592908944</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6226483097021571</v>
+        <v>1.534259138208171</v>
       </c>
       <c r="C5">
-        <v>0.09987393089295438</v>
+        <v>0.333318285304216</v>
       </c>
       <c r="D5">
-        <v>0.2575159405166971</v>
+        <v>0.1375129905654973</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.292489912473513</v>
+        <v>0.7279848757595246</v>
       </c>
       <c r="G5">
-        <v>0.0024403033911379</v>
+        <v>0.0007999453839796714</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2677900350991607</v>
+        <v>0.1324904449183819</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3512970939325015</v>
+        <v>0.5128277030150414</v>
       </c>
       <c r="N5">
-        <v>1.258301497817154</v>
+        <v>0.7424434412967003</v>
       </c>
       <c r="O5">
-        <v>2.863404395476664</v>
+        <v>1.631222899456759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6193955663076167</v>
+        <v>1.52321370197086</v>
       </c>
       <c r="C6">
-        <v>0.09917341763946297</v>
+        <v>0.3310859706254234</v>
       </c>
       <c r="D6">
-        <v>0.2574307971951271</v>
+        <v>0.1369680538960694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.292471493507591</v>
+        <v>0.7259831730664317</v>
       </c>
       <c r="G6">
-        <v>0.002440436749862078</v>
+        <v>0.0008001372612285155</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2678067915298143</v>
+        <v>0.132189995192924</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3503515950524658</v>
+        <v>0.5092896211742328</v>
       </c>
       <c r="N6">
-        <v>1.258893882473092</v>
+        <v>0.7437851967540645</v>
       </c>
       <c r="O6">
-        <v>2.863550312527764</v>
+        <v>1.627154431427556</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6419806831131325</v>
+        <v>1.599906790153852</v>
       </c>
       <c r="C7">
-        <v>0.1040325240331867</v>
+        <v>0.3465784903882536</v>
       </c>
       <c r="D7">
-        <v>0.2580303153444703</v>
+        <v>0.1407620538722369</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.292669792376032</v>
+        <v>0.7400103050828903</v>
       </c>
       <c r="G7">
-        <v>0.002439519755078482</v>
+        <v>0.0007988135553529094</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2677029111186897</v>
+        <v>0.1342970851891323</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3569267002233119</v>
+        <v>0.5338713453923134</v>
       </c>
       <c r="N7">
-        <v>1.254826852296862</v>
+        <v>0.7345627940171973</v>
       </c>
       <c r="O7">
-        <v>2.862706931377431</v>
+        <v>1.655732571396129</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7418232844613044</v>
+        <v>1.93915591523205</v>
       </c>
       <c r="C8">
-        <v>0.125393473237807</v>
+        <v>0.4149192391583369</v>
       </c>
       <c r="D8">
-        <v>0.2608864144692973</v>
+        <v>0.1578045478488121</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.295288874020557</v>
+        <v>0.8053731180692125</v>
       </c>
       <c r="G8">
-        <v>0.002435687050749556</v>
+        <v>0.0007931705947448483</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2675520904239406</v>
+        <v>0.1441566618504382</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3862438752183124</v>
+        <v>0.6430025669340083</v>
       </c>
       <c r="N8">
-        <v>1.237987478314594</v>
+        <v>0.6961685214008746</v>
       </c>
       <c r="O8">
-        <v>2.863181853830866</v>
+        <v>1.790656590458497</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9382044125550806</v>
+        <v>2.60929910785336</v>
       </c>
       <c r="C9">
-        <v>0.1669777327548729</v>
+        <v>0.5491638366821405</v>
       </c>
       <c r="D9">
-        <v>0.2672394484871177</v>
+        <v>0.1924577698606527</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.306702159912874</v>
+        <v>0.9477516884150248</v>
       </c>
       <c r="G9">
-        <v>0.00242893458446605</v>
+        <v>0.0007827870877055264</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2683627387609349</v>
+        <v>0.1657769694925548</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.444807254720395</v>
+        <v>0.860148236251149</v>
       </c>
       <c r="N9">
-        <v>1.208944245094216</v>
+        <v>0.6297074807160357</v>
       </c>
       <c r="O9">
-        <v>2.879236275420141</v>
+        <v>2.091439517708125</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.082815134587236</v>
+        <v>3.106664524023131</v>
       </c>
       <c r="C10">
-        <v>0.1973365775169782</v>
+        <v>0.6482719309068727</v>
       </c>
       <c r="D10">
-        <v>0.2723625055370604</v>
+        <v>0.2188279127586412</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.318926802277872</v>
+        <v>1.062805815602573</v>
       </c>
       <c r="G10">
-        <v>0.002424434277044085</v>
+        <v>0.0007755434868636827</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2696343163801203</v>
+        <v>0.1833288312727817</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4884798973050977</v>
+        <v>1.02241205792415</v>
       </c>
       <c r="N10">
-        <v>1.190029701217163</v>
+        <v>0.5868215704135409</v>
       </c>
       <c r="O10">
-        <v>2.900296591568605</v>
+        <v>2.339103001006009</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.148668347770524</v>
+        <v>3.334511256406017</v>
       </c>
       <c r="C11">
-        <v>0.2111042668061316</v>
+        <v>0.6935458578931843</v>
       </c>
       <c r="D11">
-        <v>0.2747914141814363</v>
+        <v>0.2310601874379188</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.325324683291456</v>
+        <v>1.117845704560182</v>
       </c>
       <c r="G11">
-        <v>0.002422486015120335</v>
+        <v>0.0007723245197129549</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2703599349861889</v>
+        <v>0.1917415442733059</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5084866790282589</v>
+        <v>1.097018812634552</v>
       </c>
       <c r="N11">
-        <v>1.181950886138424</v>
+        <v>0.5687362447870328</v>
       </c>
       <c r="O11">
-        <v>2.911899577882963</v>
+        <v>2.458672523382319</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.173614386696499</v>
+        <v>3.421063776183928</v>
       </c>
       <c r="C12">
-        <v>0.2163114081719471</v>
+        <v>0.710724525886576</v>
       </c>
       <c r="D12">
-        <v>0.2757252629743192</v>
+        <v>0.2357296055687641</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.327867904013175</v>
+        <v>1.139115038677716</v>
       </c>
       <c r="G12">
-        <v>0.00242176241268391</v>
+        <v>0.0007711158922189341</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2706558913652231</v>
+        <v>0.1949947411947761</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5160826232032036</v>
+        <v>1.125401872524776</v>
       </c>
       <c r="N12">
-        <v>1.178967215261281</v>
+        <v>0.5621047477465666</v>
       </c>
       <c r="O12">
-        <v>2.916584875137687</v>
+        <v>2.505043501853663</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.168241434091556</v>
+        <v>3.402410328437043</v>
       </c>
       <c r="C13">
-        <v>0.2151902448979399</v>
+        <v>0.7070231399325166</v>
       </c>
       <c r="D13">
-        <v>0.2755235172097628</v>
+        <v>0.2347222471557586</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.327314815117475</v>
+        <v>1.134514674202336</v>
       </c>
       <c r="G13">
-        <v>0.002421917624554359</v>
+        <v>0.0007713757430876429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2705912095856604</v>
+        <v>0.1942910067078216</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5144458244911903</v>
+        <v>1.119282953104801</v>
       </c>
       <c r="N13">
-        <v>1.179606439202296</v>
+        <v>0.5635231015184914</v>
       </c>
       <c r="O13">
-        <v>2.915562837596156</v>
+        <v>2.495006419966046</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.150720502067827</v>
+        <v>3.341626276619536</v>
       </c>
       <c r="C14">
-        <v>0.2115327907910967</v>
+        <v>0.6949584238938655</v>
       </c>
       <c r="D14">
-        <v>0.2748679608613003</v>
+        <v>0.2314435753074946</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.325531500110543</v>
+        <v>1.119586758067712</v>
       </c>
       <c r="G14">
-        <v>0.002422426200602394</v>
+        <v>0.0007722248820437403</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2703838589103</v>
+        <v>0.1920077987987412</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.509111206642352</v>
+        <v>1.099351173092629</v>
       </c>
       <c r="N14">
-        <v>1.181703902371353</v>
+        <v>0.5681862443712973</v>
       </c>
       <c r="O14">
-        <v>2.91227919427871</v>
+        <v>2.462464996563455</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.139989546755999</v>
+        <v>3.304431033074707</v>
       </c>
       <c r="C15">
-        <v>0.2092916559783475</v>
+        <v>0.6875731438854018</v>
       </c>
       <c r="D15">
-        <v>0.2744682442231436</v>
+        <v>0.2294402576971777</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.324454862851439</v>
+        <v>1.110499770129593</v>
       </c>
       <c r="G15">
-        <v>0.002422739560289404</v>
+        <v>0.000772746329355476</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2702596094575895</v>
+        <v>0.190618239538928</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5058461700250376</v>
+        <v>1.087159989773703</v>
       </c>
       <c r="N15">
-        <v>1.182998505700553</v>
+        <v>0.571071197383489</v>
       </c>
       <c r="O15">
-        <v>2.910305849144009</v>
+        <v>2.442677809782367</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.078512770076145</v>
+        <v>3.091809839369546</v>
       </c>
       <c r="C16">
-        <v>0.1964359465617065</v>
+        <v>0.6453175817410397</v>
       </c>
       <c r="D16">
-        <v>0.2722057442371408</v>
+        <v>0.2180335402227342</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.31852553742597</v>
+        <v>1.059266407458949</v>
       </c>
       <c r="G16">
-        <v>0.002424563585817498</v>
+        <v>0.000775755334067044</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2695898584392467</v>
+        <v>0.1827881526757622</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4871751957563504</v>
+        <v>1.017553708984849</v>
       </c>
       <c r="N16">
-        <v>1.190568248101862</v>
+        <v>0.5880331681255271</v>
       </c>
       <c r="O16">
-        <v>2.899579064201333</v>
+        <v>2.331436150980949</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.040815683081121</v>
+        <v>2.961810972889907</v>
       </c>
       <c r="C17">
-        <v>0.1885382749730411</v>
+        <v>0.6194485441671418</v>
       </c>
       <c r="D17">
-        <v>0.270842922910191</v>
+        <v>0.2110987195668486</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.315102525122413</v>
+        <v>1.028554704061079</v>
       </c>
       <c r="G17">
-        <v>0.002425707862211929</v>
+        <v>0.0007776203393673439</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2692166942999279</v>
+        <v>0.1780983961237581</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4757567672697007</v>
+        <v>0.9750671954630192</v>
       </c>
       <c r="N17">
-        <v>1.195346657245985</v>
+        <v>0.5988118991068987</v>
       </c>
       <c r="O17">
-        <v>2.893517019891533</v>
+        <v>2.265030220250708</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.019139881086062</v>
+        <v>2.887186208304911</v>
       </c>
       <c r="C18">
-        <v>0.1839917383981344</v>
+        <v>0.6045866937175788</v>
       </c>
       <c r="D18">
-        <v>0.270068330976045</v>
+        <v>0.2071320278975577</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.313212456588914</v>
+        <v>1.011141918817586</v>
       </c>
       <c r="G18">
-        <v>0.002426375337498775</v>
+        <v>0.0007787002520368849</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2690159116021178</v>
+        <v>0.1754409049180552</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4692023732943227</v>
+        <v>0.9507035265041353</v>
       </c>
       <c r="N18">
-        <v>1.198144532563767</v>
+        <v>0.6051447564309669</v>
       </c>
       <c r="O18">
-        <v>2.890220624267386</v>
+        <v>2.227478927400881</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.011801987410195</v>
+        <v>2.861943567615469</v>
       </c>
       <c r="C19">
-        <v>0.1824516788385893</v>
+        <v>0.5995574944894884</v>
       </c>
       <c r="D19">
-        <v>0.2698076613841351</v>
+        <v>0.2057926611100669</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.312586034079487</v>
+        <v>1.005288366383397</v>
       </c>
       <c r="G19">
-        <v>0.002426602935357704</v>
+        <v>0.0007790671488509082</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2689503085055307</v>
+        <v>0.1745478101948947</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4669854417673989</v>
+        <v>0.9424665203968061</v>
       </c>
       <c r="N19">
-        <v>1.199100339049515</v>
+        <v>0.6073114729436568</v>
       </c>
       <c r="O19">
-        <v>2.88913719096422</v>
+        <v>2.214872344018971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.044827930653469</v>
+        <v>2.975634045717698</v>
       </c>
       <c r="C20">
-        <v>0.1893794118395249</v>
+        <v>0.6222005029736124</v>
       </c>
       <c r="D20">
-        <v>0.27098703903863</v>
+        <v>0.211834639317118</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.315458758441778</v>
+        <v>1.031797690225034</v>
       </c>
       <c r="G20">
-        <v>0.002425585088148986</v>
+        <v>0.000777421064505447</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2692549845625649</v>
+        <v>0.1785934545552976</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4769709161765689</v>
+        <v>0.9795822354271166</v>
       </c>
       <c r="N20">
-        <v>1.194832868197501</v>
+        <v>0.597650611179823</v>
       </c>
       <c r="O20">
-        <v>2.894142631434676</v>
+        <v>2.272031934239294</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.155866592722418</v>
+        <v>3.359472287217784</v>
       </c>
       <c r="C21">
-        <v>0.2126072489095066</v>
+        <v>0.6985011287269174</v>
       </c>
       <c r="D21">
-        <v>0.2750601323024</v>
+        <v>0.2324055599918751</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.326052031938232</v>
+        <v>1.123959540559341</v>
       </c>
       <c r="G21">
-        <v>0.002422276435733599</v>
+        <v>0.0007719751943360381</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.270444187862914</v>
+        <v>0.1926765514649489</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5106775779969226</v>
+        <v>1.105201917968337</v>
       </c>
       <c r="N21">
-        <v>1.181085774511182</v>
+        <v>0.5668105737869666</v>
       </c>
       <c r="O21">
-        <v>2.913235763492622</v>
+        <v>2.471992716749583</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.228487900970435</v>
+        <v>3.611940159011453</v>
       </c>
       <c r="C22">
-        <v>0.2277506613019682</v>
+        <v>0.7485724185433185</v>
       </c>
       <c r="D22">
-        <v>0.2778041316777404</v>
+        <v>0.2460691164826017</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.333677678127501</v>
+        <v>1.186701155017118</v>
       </c>
       <c r="G22">
-        <v>0.002420196555477094</v>
+        <v>0.0007684758631203927</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2713448644252878</v>
+        <v>0.2022771034530848</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5328221579237891</v>
+        <v>1.18807481400998</v>
       </c>
       <c r="N22">
-        <v>1.172541933896376</v>
+        <v>0.5479261803367521</v>
       </c>
       <c r="O22">
-        <v>2.92741360875516</v>
+        <v>2.609099085203439</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.189724219088191</v>
+        <v>3.477031118814011</v>
       </c>
       <c r="C23">
-        <v>0.2196718322737468</v>
+        <v>0.7218271682068576</v>
       </c>
       <c r="D23">
-        <v>0.276332130061931</v>
+        <v>0.2387553871590313</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.329543415534616</v>
+        <v>1.152971725165884</v>
       </c>
       <c r="G23">
-        <v>0.002421299098499189</v>
+        <v>0.0007703382648865832</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2708528537390862</v>
+        <v>0.1971147622015366</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5209927266811434</v>
+        <v>1.143767190032435</v>
       </c>
       <c r="N23">
-        <v>1.177061607802926</v>
+        <v>0.5578845025861412</v>
       </c>
       <c r="O23">
-        <v>2.919690914988848</v>
+        <v>2.535300406086748</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.04301400355132</v>
+        <v>2.969384284738339</v>
       </c>
       <c r="C24">
-        <v>0.1889991527210952</v>
+        <v>0.6209563099061484</v>
       </c>
       <c r="D24">
-        <v>0.2709218563715439</v>
+        <v>0.2115018672378142</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.315297462816417</v>
+        <v>1.030330779727919</v>
       </c>
       <c r="G24">
-        <v>0.002425640564310441</v>
+        <v>0.0007775111326327623</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2692376306929276</v>
+        <v>0.178369518498755</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4764219676224215</v>
+        <v>0.9775407928000135</v>
       </c>
       <c r="N24">
-        <v>1.195064994284273</v>
+        <v>0.5981752066950534</v>
       </c>
       <c r="O24">
-        <v>2.893859204538785</v>
+        <v>2.26886451579864</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8850180759411046</v>
+        <v>2.427284175436682</v>
       </c>
       <c r="C25">
-        <v>0.155761463523163</v>
+        <v>0.5127892650840806</v>
       </c>
       <c r="D25">
-        <v>0.2654405738057335</v>
+        <v>0.1829354204783016</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.302941245980435</v>
+        <v>0.9075367288333496</v>
       </c>
       <c r="G25">
-        <v>0.002430680059626191</v>
+        <v>0.0007855261221202962</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.268024834067063</v>
+        <v>0.1596562751000619</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4288502889005699</v>
+        <v>0.800988098977399</v>
       </c>
       <c r="N25">
-        <v>1.216375485960612</v>
+        <v>0.646686202605764</v>
       </c>
       <c r="O25">
-        <v>2.873269375179973</v>
+        <v>2.005738025418168</v>
       </c>
     </row>
   </sheetData>
